--- a/xlsx/nfeature: 3072, hamming_tolerance: 32, k_knn: 7.xlsx
+++ b/xlsx/nfeature: 3072, hamming_tolerance: 32, k_knn: 7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.506</v>
+        <v>0.361</v>
       </c>
       <c r="C1" t="n">
         <v>0.001</v>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.878</v>
+        <v>0.694</v>
       </c>
       <c r="C2" t="n">
         <v>0.002</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.872</v>
+        <v>0.668</v>
       </c>
       <c r="C3" t="n">
         <v>0.002</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.494</v>
+        <v>0.335</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.494</v>
+        <v>0.319</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.869</v>
+        <v>1.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.127</v>
+        <v>0.133</v>
       </c>
       <c r="E6" t="n">
         <v>0.714</v>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.306</v>
+        <v>0.988</v>
       </c>
       <c r="C7" t="n">
         <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355</v>
+        <v>0.344</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.892</v>
+        <v>1.619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.729</v>
+        <v>0.701</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.325</v>
+        <v>1.002</v>
       </c>
       <c r="C9" t="n">
         <v>0.003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243</v>
+        <v>0.251</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -689,13 +689,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.853</v>
+        <v>1.395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.286</v>
+        <v>0.266</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.825</v>
+        <v>0.679</v>
       </c>
       <c r="C11" t="n">
         <v>0.002</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.177</v>
+        <v>0.944</v>
       </c>
       <c r="C12" t="n">
         <v>0.003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.844</v>
+        <v>0.72</v>
       </c>
       <c r="C13" t="n">
         <v>0.002</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.989</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
         <v>0.502</v>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.994</v>
+        <v>0.786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.505</v>
+        <v>0.498</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.767</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.764</v>
+        <v>0.544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D17" t="n">
         <v>0.511</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.154</v>
+        <v>0.892</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.54</v>
+        <v>0.537</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.651</v>
+        <v>0.465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D19" t="n">
         <v>0.498</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.072</v>
+        <v>0.858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.396</v>
+        <v>0.387</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="C21" t="n">
         <v>0.001</v>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.271</v>
+        <v>1.069</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186</v>
+        <v>0.181</v>
       </c>
       <c r="E22" t="n">
         <v>0.714</v>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.207</v>
+        <v>0.993</v>
       </c>
       <c r="C23" t="n">
         <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.511</v>
+        <v>0.502</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.551</v>
+        <v>1.34</v>
       </c>
       <c r="C24" t="n">
         <v>0.004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.592</v>
+        <v>0.554</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.41</v>
+        <v>1.278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.65</v>
+        <v>0.614</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.198</v>
+        <v>0.976</v>
       </c>
       <c r="C26" t="n">
         <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.124</v>
+        <v>0.122</v>
       </c>
       <c r="E26" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.442</v>
+        <v>1.225</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.606</v>
+        <v>0.59</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.554</v>
+        <v>1.34</v>
       </c>
       <c r="C28" t="n">
         <v>0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.677</v>
+        <v>0.648</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.836</v>
+        <v>0.678</v>
       </c>
       <c r="C29" t="n">
         <v>0.002</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.735</v>
+        <v>1.526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.611</v>
+        <v>0.607</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.838</v>
+        <v>0.495</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.317</v>
+        <v>0.308</v>
       </c>
       <c r="E31" t="n">
         <v>0.857</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.767</v>
+        <v>0.577</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.196</v>
+        <v>0.403</v>
       </c>
       <c r="E33" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.901</v>
+        <v>1.587</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209</v>
+        <v>0.522</v>
       </c>
       <c r="E34" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.541</v>
+        <v>1.318</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.621</v>
+        <v>0.539</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1439,24 +1439,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.174</v>
+        <v>1.13</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.527</v>
+        <v>0.428</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1468,17 +1468,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.163</v>
+        <v>0.631</v>
       </c>
       <c r="C37" t="n">
         <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.501</v>
+        <v>0.441</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.025</v>
+        <v>0.902</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.509</v>
+        <v>0.433</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1526,49 +1526,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.54</v>
+        <v>0.67</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.158</v>
+        <v>0.493</v>
       </c>
       <c r="E39" t="n">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.091</v>
+        <v>6.848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002</v>
+        <v>0.023</v>
       </c>
       <c r="D40" t="n">
-        <v>0.488</v>
+        <v>0.186</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1584,24 +1584,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.947</v>
+        <v>6.726</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0.022</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.137</v>
       </c>
       <c r="E41" t="n">
-        <v>0.286</v>
+        <v>0.857</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,20 +1613,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.25</v>
+        <v>3.65</v>
       </c>
       <c r="C42" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="E42" t="n">
-        <v>0.286</v>
+        <v>0.429</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1642,17 +1642,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.245</v>
+        <v>4.798</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207</v>
+        <v>0.068</v>
       </c>
       <c r="E43" t="n">
         <v>0.429</v>
@@ -1671,29 +1671,58 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fanny Yusuf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Salah</t>
+      <c r="B45" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Benar</t>
         </is>
       </c>
     </row>
